--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
     <t>Backlog item</t>
   </si>
@@ -177,9 +182,6 @@
   </si>
   <si>
     <t>Ready</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
   <si>
     <t>Done</t>
@@ -191,8 +193,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +240,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,9 +292,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +326,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,14 +537,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -541,13 +553,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1">
+    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -570,7 +582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -584,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -598,10 +610,10 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -615,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -632,10 +644,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -649,10 +661,10 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -666,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -683,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -703,7 +715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -720,7 +732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -734,10 +746,10 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -754,7 +766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -765,12 +777,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -781,12 +793,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -797,12 +809,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -813,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -830,7 +842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -841,12 +853,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -857,12 +869,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -873,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -890,7 +902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -901,12 +913,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -917,12 +929,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -933,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -950,7 +962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -961,12 +973,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -977,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1005,12 +1017,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1045,14 +1057,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1061,13 +1073,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1169,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1267,12 +1279,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1283,12 +1295,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1299,12 +1311,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1343,12 +1355,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1359,12 +1371,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1403,12 +1415,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1419,12 +1431,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1463,12 +1475,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1507,12 +1519,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>Backlog item</t>
   </si>
@@ -185,16 +180,13 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,9 +284,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,10 +318,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,10 +352,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -553,13 +543,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -582,7 +572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -596,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -613,7 +603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -630,7 +620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -647,7 +637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -661,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -678,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -698,7 +688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -715,7 +705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -732,7 +722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -749,7 +739,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -766,7 +756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -777,12 +767,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -793,12 +783,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -809,12 +799,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -825,7 +815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -842,7 +832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>3</v>
       </c>
@@ -853,12 +843,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
@@ -869,12 +859,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>3</v>
       </c>
@@ -885,7 +875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -902,7 +892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>4</v>
       </c>
@@ -913,12 +903,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
@@ -929,12 +919,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>4</v>
       </c>
@@ -945,7 +935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -962,7 +952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>5</v>
       </c>
@@ -973,12 +963,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5</v>
       </c>
@@ -989,7 +979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1006,7 +996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1017,12 +1007,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1033,7 +1023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1057,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1073,13 +1063,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1127,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1141,7 +1131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1155,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1169,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1181,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1195,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1209,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1223,7 +1213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1237,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1251,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1279,12 +1269,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1295,12 +1285,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1311,12 +1301,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1327,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1355,12 +1345,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1371,12 +1361,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1387,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1404,7 +1394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1415,12 +1405,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1431,12 +1421,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1447,7 +1437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1475,12 +1465,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1491,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1519,12 +1509,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1535,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>Backlog item</t>
   </si>
@@ -180,13 +185,64 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Improve prediction: word completion</t>
+  </si>
+  <si>
+    <t>Based on computing capacity define a percentage of the corpus for training and test set</t>
+  </si>
+  <si>
+    <t>Based on the outcome of the above and based response time requirements define a size (number of entries for 1,2 and3-grams</t>
+  </si>
+  <si>
+    <t>Define and measure response time of the predict funciton</t>
+  </si>
+  <si>
+    <t>With a given percentage of the test set define a function that can read the test set line by line</t>
+  </si>
+  <si>
+    <t>Define a funtion that extracts blank limited substings of a line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform cleansing on test set </t>
+  </si>
+  <si>
+    <t>Build something to run tests with the predict fuction</t>
+  </si>
+  <si>
+    <t>Have some measure of results (% of correct predicitons)</t>
+  </si>
+  <si>
+    <t>Define a funtion that extracts blank limited substings with next word out of a line</t>
+  </si>
+  <si>
+    <t>Measure response time and memory consumtion on the test server</t>
+  </si>
+  <si>
+    <t>Deploy to shinyapps</t>
+  </si>
+  <si>
+    <t>Release 2: 15.4.2016</t>
+  </si>
+  <si>
+    <t>Release 3: 17.4.2016</t>
+  </si>
+  <si>
+    <t>Release 4: 20.4.2016</t>
+  </si>
+  <si>
+    <t>Release 1: 8.4.2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,9 +340,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,14 +585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -543,13 +601,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1">
+    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -572,7 +630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -586,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -603,7 +661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -620,7 +678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -637,7 +695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -654,7 +712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -671,7 +729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -688,7 +746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -705,7 +763,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -722,7 +780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -739,304 +797,372 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42467</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>6</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1047,14 +1173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1063,13 +1189,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1103,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1117,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1131,7 +1257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1145,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1159,7 +1285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1171,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1185,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1199,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1213,7 +1339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1227,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1241,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1258,7 +1384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1269,12 +1395,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1285,12 +1411,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1301,12 +1427,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1317,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1334,7 +1460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1345,12 +1471,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1361,12 +1487,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1377,7 +1503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1405,12 +1531,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1421,12 +1547,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1437,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1465,12 +1591,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1481,7 +1607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1498,7 +1624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1509,12 +1635,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1525,7 +1651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>Backlog item</t>
   </si>
@@ -241,8 +236,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,9 +335,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,10 +369,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,10 +403,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -601,13 +594,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -630,7 +623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -644,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -661,7 +654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -678,7 +671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -695,7 +688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -712,7 +705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -729,7 +722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -746,7 +739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -763,7 +756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -780,7 +773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -797,7 +790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -811,10 +804,10 @@
         <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -831,7 +824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -842,7 +835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="E16">
         <v>1</v>
@@ -851,7 +844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -862,7 +855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="E18">
         <v>3</v>
@@ -871,298 +864,307 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25">
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>4</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:6">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="B50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1173,14 +1175,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1189,13 +1191,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1297,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1395,12 +1397,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1411,12 +1413,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1427,12 +1429,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1471,12 +1473,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1487,12 +1489,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1531,12 +1533,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1547,12 +1549,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1591,12 +1593,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1635,12 +1637,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1651,7 +1653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>Backlog item</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Ready</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Deploy to shinyapps</t>
   </si>
   <si>
-    <t>Release 2: 15.4.2016</t>
-  </si>
-  <si>
     <t>Release 3: 17.4.2016</t>
   </si>
   <si>
@@ -231,6 +225,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Release 2: 16.4.2016</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>review and consolidate common function</t>
+  </si>
+  <si>
+    <t>Need to extract strings with at least two tokens</t>
+  </si>
+  <si>
+    <t>Improve memory usage and response time</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -651,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -668,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
@@ -685,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -702,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -719,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -736,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -753,7 +762,7 @@
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -770,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -801,15 +810,15 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>42</v>
@@ -826,7 +835,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>49</v>
@@ -841,39 +850,39 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="4"/>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4"/>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -884,52 +893,70 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4"/>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4"/>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4"/>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4"/>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -937,10 +964,13 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -951,69 +981,79 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" s="4"/>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4"/>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>42</v>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4"/>
+      <c r="E32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
         <v>3</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
@@ -1021,150 +1061,155 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="A36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="38" spans="1:6">
-      <c r="A38">
-        <v>4</v>
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
+      <c r="D40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
         <v>4</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="45" spans="1:6">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
         <v>5</v>
       </c>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
         <v>6</v>
       </c>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="B51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t>Backlog item</t>
   </si>
@@ -230,16 +230,13 @@
     <t>Release 2: 16.4.2016</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>review and consolidate common function</t>
   </si>
   <si>
-    <t>Need to extract strings with at least two tokens</t>
-  </si>
-  <si>
     <t>Improve memory usage and response time</t>
+  </si>
+  <si>
+    <t>More or less…</t>
   </si>
 </sst>
 </file>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -852,8 +849,11 @@
       <c r="F16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -863,8 +863,11 @@
       <c r="F17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="E18">
         <v>3</v>
@@ -872,8 +875,11 @@
       <c r="F18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="E19">
         <v>4</v>
@@ -881,8 +887,11 @@
       <c r="F19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -893,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="E21">
         <v>1</v>
@@ -905,7 +914,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="E22">
         <v>2</v>
@@ -917,7 +926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" s="4"/>
       <c r="E23">
         <v>3</v>
@@ -929,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="E24">
         <v>4</v>
@@ -938,13 +947,10 @@
         <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="E25">
         <v>5</v>
@@ -956,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -970,7 +976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -981,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="E28">
         <v>1</v>
@@ -990,7 +996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -998,19 +1004,19 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1021,13 +1027,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1054,18 +1060,24 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1093,12 +1105,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1120,12 +1132,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1164,12 +1176,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>6</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>Backlog item</t>
   </si>
@@ -237,13 +242,61 @@
   </si>
   <si>
     <t>More or less…</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>Presentation: 80 %</t>
+  </si>
+  <si>
+    <t>Presentation: Ready for submission</t>
+  </si>
+  <si>
+    <t>Improve Processing</t>
+  </si>
+  <si>
+    <t>define sizes</t>
+  </si>
+  <si>
+    <t>commonProcessing.R</t>
+  </si>
+  <si>
+    <t>adapt paths and file names</t>
+  </si>
+  <si>
+    <t>Have one preprocessing</t>
+  </si>
+  <si>
+    <t>Optimize prediciton with hash</t>
+  </si>
+  <si>
+    <t>Build hash table with concatenated string</t>
+  </si>
+  <si>
+    <t>use hash table for prediction with concatenated (and split) string</t>
+  </si>
+  <si>
+    <t>Define and run testsuite</t>
+  </si>
+  <si>
+    <t>Make up mind about percentages and variants to run</t>
+  </si>
+  <si>
+    <t>(re)define tests (Base, KN,  full)</t>
+  </si>
+  <si>
+    <t>implement store results for each run</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,9 +394,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,9 +463,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,14 +639,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42462</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42464</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42464</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42465</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42467</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -600,13 +1408,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -625,11 +1433,8 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -643,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -656,11 +1461,8 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -673,11 +1475,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -690,11 +1489,8 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -707,644 +1503,8 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>42464</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42464</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>42465</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42467</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42462</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>42462</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1356,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1370,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1384,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1398,7 +1558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1412,7 +1572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1426,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1454,12 +1614,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1470,12 +1630,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1486,12 +1646,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1502,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1519,7 +1679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1530,12 +1690,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1546,12 +1706,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1562,7 +1722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1579,7 +1739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1590,12 +1750,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1606,12 +1766,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1622,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1639,7 +1799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1650,12 +1810,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1666,7 +1826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +1843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1694,12 +1854,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1710,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
   <si>
     <t>Backlog item</t>
   </si>
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,91 +1297,102 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>4</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
+      <c r="C66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
+      <c r="C68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
-      <c r="C69" s="3" t="s">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="B71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\10-DataScienceCapStone\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="10515" windowHeight="9270"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
   <si>
     <t>Backlog item</t>
   </si>
@@ -289,14 +284,95 @@
     <t>implement store results for each run</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>App RC</t>
+  </si>
+  <si>
+    <t>Presentation: RC + Review</t>
+  </si>
+  <si>
+    <t>Algorhithm RC</t>
+  </si>
+  <si>
+    <t>Reimplement shrinking</t>
+  </si>
+  <si>
+    <t>Update shrinking with collaped lines</t>
+  </si>
+  <si>
+    <t>Update predict algorhitm to use collapsed lines</t>
+  </si>
+  <si>
+    <t>run 89% ngrams &amp; KN Grams</t>
+  </si>
+  <si>
+    <t>update testing &amp; run testing</t>
+  </si>
+  <si>
+    <t>review app and take RC of Ngrams</t>
+  </si>
+  <si>
+    <t>review text</t>
+  </si>
+  <si>
+    <t>test (other browser, after 1h)</t>
+  </si>
+  <si>
+    <t>implement "please wait"</t>
+  </si>
+  <si>
+    <t>extend line</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>select sentences from twitter and blogs</t>
+  </si>
+  <si>
+    <t>split last word, store somwhere</t>
+  </si>
+  <si>
+    <t>test with testset</t>
+  </si>
+  <si>
+    <t>review presentation</t>
+  </si>
+  <si>
+    <t>update with status quo</t>
+  </si>
+  <si>
+    <t>integrate test results</t>
+  </si>
+  <si>
+    <t>integrate app screenshot</t>
+  </si>
+  <si>
+    <t>integrate referrences and links to github and app</t>
+  </si>
+  <si>
+    <t>tidy up</t>
+  </si>
+  <si>
+    <t>update md file with scripts that need to run</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>Satureday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,9 +470,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,10 +504,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,10 +538,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,14 +713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -655,13 +729,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -684,7 +758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -698,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -715,7 +789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -732,7 +806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" hidden="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -749,7 +823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -766,7 +840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -783,7 +857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -800,7 +874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -817,7 +891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -834,7 +908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -851,7 +925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -868,7 +942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -885,7 +959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -896,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="4"/>
       <c r="E16">
         <v>1</v>
@@ -908,7 +982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -922,7 +996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="4"/>
       <c r="E18">
         <v>3</v>
@@ -934,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="4"/>
       <c r="E19">
         <v>4</v>
@@ -946,7 +1020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -957,7 +1031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="4"/>
       <c r="E21">
         <v>1</v>
@@ -969,7 +1043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="4"/>
       <c r="E22">
         <v>2</v>
@@ -981,7 +1055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="4"/>
       <c r="E23">
         <v>3</v>
@@ -993,7 +1067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="4"/>
       <c r="E24">
         <v>4</v>
@@ -1005,7 +1079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="4"/>
       <c r="E25">
         <v>5</v>
@@ -1017,7 +1091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -1031,7 +1105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1042,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="4"/>
       <c r="E28">
         <v>1</v>
@@ -1054,7 +1128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1068,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="4"/>
       <c r="E30">
         <v>3</v>
@@ -1077,7 +1151,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1088,13 +1162,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="4"/>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1111,7 +1185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1128,12 +1202,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1144,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1152,7 +1226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1169,12 +1243,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1188,7 +1262,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1"/>
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1202,12 +1277,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1218,7 +1293,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1"/>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1235,7 +1311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1">
       <c r="F47" t="s">
         <v>77</v>
       </c>
@@ -1243,7 +1319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1">
       <c r="F48" t="s">
         <v>78</v>
       </c>
@@ -1251,15 +1327,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1">
       <c r="F49" t="s">
         <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1">
       <c r="F50" t="s">
         <v>80</v>
       </c>
@@ -1267,37 +1343,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1"/>
+    <row r="52" spans="1:7" hidden="1">
       <c r="D52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1">
       <c r="F53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1">
       <c r="F54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1"/>
+    <row r="56" spans="1:7" hidden="1">
       <c r="D56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1">
       <c r="F57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1">
       <c r="F58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1"/>
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1308,7 +1387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1325,74 +1404,200 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="F66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="F68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="F69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="C72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="F73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="F74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="C75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="F76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="F78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="C83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="F84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="F85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="F86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="F87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="F88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="C89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="F90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
         <v>4</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D95" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>6</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="B97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1403,14 +1608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -1419,13 +1624,13 @@
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1459,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1473,7 +1678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1487,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1501,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1515,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>42462</v>
@@ -1527,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1541,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1555,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1569,7 +1774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1583,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1597,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1625,12 +1830,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1641,12 +1846,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1657,12 +1862,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1673,7 +1878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1701,12 +1906,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1717,12 +1922,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1733,7 +1938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1750,7 +1955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1761,12 +1966,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1777,12 +1982,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1793,7 +1998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1810,7 +2015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1821,12 +2026,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1837,7 +2042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +2059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1865,12 +2070,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1881,7 +2086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>47</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
   <si>
     <t>Backlog item</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Satureday</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1427,21 +1430,33 @@
       <c r="F67" t="s">
         <v>92</v>
       </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="68" spans="2:7">
       <c r="F68" t="s">
         <v>93</v>
       </c>
+      <c r="G68" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="69" spans="2:7">
       <c r="F69" t="s">
         <v>94</v>
       </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="70" spans="2:7">
       <c r="F70" t="s">
         <v>95</v>
       </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="72" spans="2:7">
       <c r="C72" s="3" t="s">
@@ -1455,11 +1470,17 @@
       <c r="F73" t="s">
         <v>102</v>
       </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="74" spans="2:7">
       <c r="F74" t="s">
         <v>103</v>
       </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="75" spans="2:7">
       <c r="C75" s="3" t="s">
@@ -1473,11 +1494,17 @@
       <c r="F76" t="s">
         <v>97</v>
       </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="77" spans="2:7">
       <c r="F77" t="s">
         <v>96</v>
       </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="78" spans="2:7">
       <c r="F78" t="s">
@@ -1494,12 +1521,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="F81" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:7">
       <c r="C83" s="3" t="s">
         <v>113</v>
       </c>
@@ -1507,32 +1534,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:7">
       <c r="F84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7">
       <c r="F85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:7">
       <c r="F86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:7">
       <c r="F87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:7">
       <c r="F88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:7">
       <c r="C89" s="3" t="s">
         <v>114</v>
       </c>
@@ -1540,12 +1567,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:7">
       <c r="F90" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>5</v>
       </c>
@@ -1573,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>4</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
   <si>
     <t>Backlog item</t>
   </si>
@@ -720,7 +720,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1495,7 +1495,7 @@
         <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -1503,7 +1503,7 @@
         <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -1520,10 +1520,16 @@
       <c r="F80" t="s">
         <v>100</v>
       </c>
+      <c r="G80" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="F81" t="s">
         <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:7">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="117">
   <si>
     <t>Backlog item</t>
   </si>
@@ -720,7 +720,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1544,11 +1544,17 @@
       <c r="F84" t="s">
         <v>105</v>
       </c>
+      <c r="G84" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="F85" t="s">
         <v>106</v>
       </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="F86" t="s">
@@ -1558,6 +1564,9 @@
     <row r="87" spans="1:7">
       <c r="F87" t="s">
         <v>108</v>
+      </c>
+      <c r="G87" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:7">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
   <si>
     <t>Backlog item</t>
   </si>
@@ -365,10 +365,46 @@
     <t>B16</t>
   </si>
   <si>
-    <t>Satureday</t>
-  </si>
-  <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Review the app</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>check shiny usage</t>
+  </si>
+  <si>
+    <t>check app</t>
+  </si>
+  <si>
+    <t>Review presentation</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>Relase 6: 24.4.2016</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Submit to coursera</t>
+  </si>
+  <si>
+    <t>Publish to Rpres</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -717,17 +753,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -761,7 +797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -775,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" hidden="1" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -792,7 +828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -809,7 +845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" hidden="1">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -826,7 +862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -843,7 +879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -860,7 +896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -877,7 +913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -894,7 +930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -911,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -928,7 +964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -945,7 +981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -962,7 +998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -973,7 +1009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="E16">
         <v>1</v>
@@ -985,7 +1021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -999,7 +1035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="E18">
         <v>3</v>
@@ -1011,7 +1047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="E19">
         <v>4</v>
@@ -1023,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1034,7 +1070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="E21">
         <v>1</v>
@@ -1046,7 +1082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="E22">
         <v>2</v>
@@ -1058,7 +1094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="4"/>
       <c r="E23">
         <v>3</v>
@@ -1070,7 +1106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="E24">
         <v>4</v>
@@ -1082,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="E25">
         <v>5</v>
@@ -1094,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -1108,7 +1144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="E28">
         <v>1</v>
@@ -1131,7 +1167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -1145,7 +1181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="E30">
         <v>3</v>
@@ -1154,7 +1190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1165,13 +1201,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1188,7 +1224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1205,12 +1241,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1229,7 +1265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1246,12 +1282,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1265,8 +1301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1"/>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1280,12 +1315,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1296,8 +1331,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1"/>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1314,7 +1348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="F47" t="s">
         <v>77</v>
       </c>
@@ -1322,7 +1356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="F48" t="s">
         <v>78</v>
       </c>
@@ -1330,7 +1364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="F49" t="s">
         <v>79</v>
       </c>
@@ -1338,7 +1372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="F50" t="s">
         <v>80</v>
       </c>
@@ -1346,40 +1380,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1"/>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="D52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="F53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="F54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1"/>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="D56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="F57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="F58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1"/>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1409,7 +1440,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>38</v>
@@ -1447,7 +1478,7 @@
         <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -1455,7 +1486,7 @@
         <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -1558,91 +1589,180 @@
     </row>
     <row r="86" spans="1:7">
       <c r="F86" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="F87" t="s">
-        <v>108</v>
-      </c>
-      <c r="G87" t="s">
-        <v>52</v>
+      <c r="C87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="F88" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="C93" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="F94" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="F95" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="C89" s="3" t="s">
+      <c r="G95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="F96" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="F97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="C98" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="F90" t="s">
-        <v>111</v>
-      </c>
-      <c r="G90" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
+      <c r="D98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="F99" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="F100" t="s">
+        <v>121</v>
+      </c>
+      <c r="G100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
         <v>4</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C101" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F97" s="5" t="s">
+    <row r="102" spans="1:7">
+      <c r="F102" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="F103" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="C104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="F105" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>42</v>
       </c>
     </row>
